--- a/biology/Médecine/Ministre_d'État_à_la_Santé_(Royaume-Uni)/Ministre_d'État_à_la_Santé_(Royaume-Uni).xlsx
+++ b/biology/Médecine/Ministre_d'État_à_la_Santé_(Royaume-Uni)/Ministre_d'État_à_la_Santé_(Royaume-Uni).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ministre_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_(Royaume-Uni)</t>
+          <t>Ministre_d'État_à_la_Santé_(Royaume-Uni)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le ministre d'État à la Santé est un poste de niveau intermédiaire au département de la Santé et des Affaires sociales du gouvernement britannique. Le poste est actuellement occupé par Edward Argar MP qui a pris ses fonctions le 10 septembre 2019[1]. Le ministre supplée souvent le secrétaire d'État à la Santé et aux Affaires sociales aux côtés du ministre d'État aux Affaires sociales[2].
+Le ministre d'État à la Santé est un poste de niveau intermédiaire au département de la Santé et des Affaires sociales du gouvernement britannique. Le poste est actuellement occupé par Edward Argar MP qui a pris ses fonctions le 10 septembre 2019. Le ministre supplée souvent le secrétaire d'État à la Santé et aux Affaires sociales aux côtés du ministre d'État aux Affaires sociales.
 L'office a été créé en 1970 par le nouveau ministère de la Santé en tant que ministre adjoint au département de la Santé.
 Historiquement, le rôle était connu comme Ministre d'État à la Santé et à la Sécurité sociale dans le cadre du département de la Santé et de la Sécurité sociale.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ministre_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_(Royaume-Uni)</t>
+          <t>Ministre_d'État_à_la_Santé_(Royaume-Uni)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Responsabilités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le ministre est responsable de ce qui suit[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le ministre est responsable de ce qui suit :
 COVID-19:
 Résilience du NHS (capacité aiguë)
 alimentation (ventilateurs)
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ministre_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_(Royaume-Uni)</t>
+          <t>Ministre_d'État_à_la_Santé_(Royaume-Uni)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,6 +575,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
